--- a/WebsiteAssets/Docs/Motion_Project_Backlog.xlsx
+++ b/WebsiteAssets/Docs/Motion_Project_Backlog.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EFB9305-B19A-420A-907C-8A9FBCE80D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dreww\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1394789-C18B-48AB-9176-17BFD36B9FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>What you did</t>
   </si>
@@ -64,13 +69,34 @@
   </si>
   <si>
     <t>Securtity Fix(Ensuring .jpg or .png found)</t>
+  </si>
+  <si>
+    <t>Combining the Programs</t>
+  </si>
+  <si>
+    <t>Build a Basic GUI</t>
+  </si>
+  <si>
+    <t>Update the GUI Visuals</t>
+  </si>
+  <si>
+    <t>Refine Search Query</t>
+  </si>
+  <si>
+    <t>Update Storage</t>
+  </si>
+  <si>
+    <t>Migrating to the Cloud</t>
+  </si>
+  <si>
+    <t>Built .exe for Windows and Mac</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,13 +467,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
@@ -455,7 +481,7 @@
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,12 +495,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -483,7 +509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -497,7 +523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -511,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -525,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -539,7 +565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -551,6 +577,104 @@
       </c>
       <c r="D7" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/WebsiteAssets/Docs/Motion_Project_Backlog.xlsx
+++ b/WebsiteAssets/Docs/Motion_Project_Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dreww\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sammy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1394789-C18B-48AB-9176-17BFD36B9FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08324FD5-E4B3-4F5E-819B-D1D40138E39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>What you did</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Research</t>
   </si>
   <si>
-    <t>Still Going</t>
-  </si>
-  <si>
     <t>Image Scaper(Google)</t>
   </si>
   <si>
@@ -90,6 +87,12 @@
   </si>
   <si>
     <t>Built .exe for Windows and Mac</t>
+  </si>
+  <si>
+    <t>Implemented Consistent Variables</t>
+  </si>
+  <si>
+    <t>Added Ability to Choose Output Location</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,18 +503,18 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
+      <c r="D2" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -525,7 +528,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -539,7 +542,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -553,7 +556,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -567,7 +570,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -581,7 +584,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
@@ -595,7 +598,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -609,21 +612,21 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
+      <c r="D10" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>5</v>
@@ -637,21 +640,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -665,16 +668,44 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
